--- a/school_data/configuration.xlsx
+++ b/school_data/configuration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limeb\Desktop\개발\주제심화탐구발표제\공개용\school_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limeb\Desktop\개발\주제심화탐구발표제\Chairy\school_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="설정 및 구성" sheetId="1" r:id="rId1"/>
@@ -76,20 +76,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔 말인지 모르겠다면 정보 선생님에게 부탁하시면 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;자리 배치 데이터&gt;
-X, Y의 값은 각각 FHD 해상도인 1920x1080 크기의 화면을 기준으로 해당 화면 상의 가로 위치, 세로 위치입니다.
-학습관의 구조가 바뀐 경우,
-/school_data/structure.png
-파일을 교체하여 학습관의 구조를 나타내는 그림을 바꿀 수 있습니다.
-단, 사진의 크기는 1002x1045 크기로 해야 화면의 다른 요소를 침범하지 않고 버그 없이 안정적으로 동작할 수 있습니다.
-좌석 디자인을 위한 아이콘 세트는 structure_icons 폴더에 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -319,10 +305,6 @@
       </rPr>
       <t>교시별 출석부를 만드는 데 필요한 정보입니다.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습관 구조는 Figma 소프트웨어를 통해 제작하는 것을 추천합니다. 디자인 통일화를 위한 색상 표는 따로 PDF 문서로 제공되는 '학습관 디자인 지침'을 참고하십시오.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -965,6 +947,23 @@
   </si>
   <si>
     <t>학생73</t>
+  </si>
+  <si>
+    <t>&lt;자리 배치 데이터&gt;
+X, Y의 값은 각각 1002x1045 해상도의 structure.png 파일을 배경으로 하는 좌석 배치도 상의 가로 위치, 세로 위치를 입력합니다.
+학습관의 구조가 바뀐 경우,
+/school_data/structure.png
+파일을 교체하여 학습관의 구조를 나타내는 그림을 바꿀 수 있습니다.
+단, 사진의 크기는 1002x1045 크기로 해야 화면의 다른 요소를 침범하지 않고 버그 없이 안정적으로 동작할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습관 구조는 Figma 소프트웨어를 통해 제작하는 것을 추천합니다. 디자인 통일화를 위한 색상 표와 제공 에셋은 따로 첨부되는 PDF 파일에 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리 번호는 숫자 이외에도 알파벳 또한 입력이 가능합니다. 단, 3자 이내로 입력하는 것을 강력 권장하며, 넘을 경우 좌석 번호가 잘려서 표시됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1866,7 +1865,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1901,14 +1900,14 @@
     </row>
     <row r="2" spans="1:11" ht="50.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="38"/>
       <c r="F2" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
@@ -1936,40 +1935,40 @@
         <v>0</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="30">
         <v>8</v>
@@ -1986,23 +1985,23 @@
     </row>
     <row r="5" spans="1:11" ht="42.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="29">
         <v>1</v>
@@ -2019,23 +2018,23 @@
     </row>
     <row r="6" spans="1:11" ht="42.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <v>9010047</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="33">
         <v>2</v>
@@ -2052,22 +2051,22 @@
     </row>
     <row r="7" spans="1:11" ht="63" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -2086,7 +2085,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="25">
         <v>3</v>
@@ -2100,7 +2099,7 @@
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -2138,19 +2137,19 @@
     </row>
     <row r="11" spans="1:11" ht="46.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
@@ -2161,7 +2160,7 @@
     </row>
     <row r="12" spans="1:11" ht="61.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -2170,15 +2169,15 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="61.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>12</v>
@@ -2187,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
@@ -2231,7 +2230,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="72" customHeight="1">
       <c r="A1" s="49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2239,7 +2238,7 @@
       <c r="E1" s="50"/>
       <c r="F1" s="51"/>
       <c r="G1" s="52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
@@ -2250,7 +2249,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>8</v>
@@ -2259,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>8</v>
@@ -2271,522 +2270,522 @@
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
       <c r="A18" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
       <c r="A20" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
       <c r="A21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
       <c r="A23" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
       <c r="A24" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
       <c r="A25" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" customHeight="1">
       <c r="A27" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1">
       <c r="A28" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>160</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" customHeight="1">
       <c r="A29" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1">
       <c r="A30" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
       <c r="A31" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
       <c r="A32" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18" customHeight="1">
       <c r="A33" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1">
       <c r="A34" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1">
       <c r="A35" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1">
       <c r="A36" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
       <c r="A37" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1">
       <c r="A38" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1">
       <c r="A39" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2804,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="22.5" customHeight="1"/>
@@ -2817,10 +2816,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
       <c r="A1" s="55" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>12</v>
@@ -3026,7 +3025,7 @@
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1">
       <c r="A18" s="53" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="B18" s="15">
         <v>17</v>
@@ -3088,7 +3087,7 @@
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1">
       <c r="A23" s="54" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="B23" s="15">
         <v>22</v>

--- a/school_data/configuration.xlsx
+++ b/school_data/configuration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limeb\Desktop\개발\주제심화탐구발표제\Chairy\school_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limeb\Desktop\개발\마산고 학습관리시스템\Chairy\school_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="설정 및 구성" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="209">
   <si>
     <t>설정 항목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -963,6 +963,10 @@
   </si>
   <si>
     <t>자리 번호는 숫자 이외에도 알파벳 또한 입력이 가능합니다. 단, 3자 이내로 입력하는 것을 강력 권장하며, 넘을 경우 좌석 번호가 잘려서 표시됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1865,8 +1869,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -2140,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -2803,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/school_data/configuration.xlsx
+++ b/school_data/configuration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10215" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="설정 및 구성" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="210">
   <si>
     <t>설정 항목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -967,6 +967,22 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1869,7 +1885,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2222,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="18" customHeight="1"/>
@@ -2278,6 +2294,9 @@
       </c>
       <c r="B3" s="22" t="s">
         <v>57</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>59</v>
